--- a/paper.xlsx
+++ b/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaojixue\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2B9C0-9856-4089-B5A9-AEBF8E68DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2113110-F59E-4FA3-9311-2386DA0EDA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>论文标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,139 @@
   </si>
   <si>
     <t>Pattern Recognition2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/hiera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta AI, FAIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们创建了Hiera，这是一个极其简单的分层视觉转换器，比以前的模型更准确，同时在推理和训练过程中都要快得多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代分层视觉变换器在追求监督分类性能的过程中添加了几个特定于视觉的组件。虽然这些组件带来了有效的精度和有吸引力的FLOP计数，但增加的复杂性实际上使这些变压器比普通ViT变压器慢。在本文中，我们认为这种额外的体积是不必要的。
+通过在整个网络中使用相同的空间分辨率和通道数量，ViT对其参数的利用效率低下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Kaiming He</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,† Xinlei Chen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Saining Xie Yanghao Li Piotr Dolla </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r Ross Girshick</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook AI Research (FAIR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masked Autoencoders Are Scalable Vision Learners蒙面自动编码器是可扩展的视觉学习器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masked autoencoders (MAE)
+屏蔽了输入图像的随机patch，并重建了缺失的像素。MAE采用了非对称的编码器-解码器结构。编码器只处理图像中的可见部分，而解码器从编码的特征和掩码补丁中重建完整的图像。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉数据冗余高、训练资源消耗大、传统自监督学习方法不适用等问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高视觉自监督学习的有效性和扩展性，通过高比例掩码和非对称编码器-解码器架构，让模型能够高效地学习图像的全局特征，从而提升在下游任务中的表现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重建任务的局限性：
+MAE采用的自监督学习目标是通过重建被掩盖的图像块来学习特征。然而，重建任务通常会促使模型关注低层次的细节（如像素级别的精确性），而这些低层次的细节不一定对下游任务（如分类或检测）有帮助。
+这种重建目标可能会限制模型学习到更高层次的语义信息，因为模型可能更注重细节重建，而不是图像的全局理解。
+对高掩码比例的依赖：
+MAE依赖非常高的掩码比例（如75%）来增强训练难度，以促使模型学习更好的全局特征。然而，高掩码比例可能对一些任务（特别是需要细节信息的任务）带来负面影响，因为模型可能无法获得足够的上下文来理解细微结构。
+这种高掩码比例策略也可能对不同类型的数据或场景产生不稳定的效果，尤其是在复杂背景或重要细节较多的图像上。
+计算资源需求仍然较高：
+尽管MAE通过非对称编码器-解码器结构减少了计算量，但在大规模数据和模型上训练时，计算资源需求仍然较高。特别是在高分辨率图像和大型模型（如ViT-Huge）上，训练MAE仍需要强大的硬件支持。
+此外，解码器在每次重建任务中处理全部的图像块，尤其是在高掩码比例下，可能会增加训练时的内存负担。
+迁移到小数据集时的效果可能不稳定：
+MAE的设计和实验大多基于大规模数据集（如ImageNet-1K）。在小规模数据集上，自监督预训练可能效果不佳，尤其是当数据量不足时，模型可能无法有效学习到有用的特征。
+自监督学习通常依赖于大量数据来学到通用特征，MAE在小数据集或特定领域的迁移能力仍需进一步验证。
+缺乏显式的语义理解：
+MAE模型在学习过程中没有明确的语义指导，例如没有明确学习到“物体”、“背景”等类别信息。因此，MAE在理解图像的语义层次上可能不如一些有监督或半监督的自监督学习方法。
+在某些需要深层次语义理解的任务中（如图像分割或细粒度分类），MAE可能表现不如其他方法，因为它的学习过程没有直接针对语义信息进行优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v1] Thu, 11 Nov 2021 18:46:40 UTC (6,839 KB)
+[v2] Thu, 2 Dec 2021 18:30:33 UTC (6,840 KB)
+[v3] Sun, 19 Dec 2021 19:23:25 UTC (6,841 KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/mae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -939,6 +1072,50 @@
       <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -947,8 +1124,10 @@
     <hyperlink ref="H5" r:id="rId2" xr:uid="{FBAC53C6-8467-42CB-A879-ADCADEBE4123}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{DB04F999-509B-41AB-AE48-AE35BF0340C5}"/>
     <hyperlink ref="H7" r:id="rId4" xr:uid="{26AB3AB8-6B59-4B41-8B69-8288B5471A6C}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{DE83DF51-5BAA-47C9-A3DD-3AE6499F2F15}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{F2C279B3-3985-40FD-95A0-048C6708852B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>